--- a/biology/Botanique/Dorstenia_brasiliensis/Dorstenia_brasiliensis.xlsx
+++ b/biology/Botanique/Dorstenia_brasiliensis/Dorstenia_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorstenia brasiliensis est une espèce de plantes à fleurs de la famille des Moraceae (famille des figuiers) et de l'ordre des Rosales, appelée contrayerba en espagnol (attention, cette appellation vernaculaire générique recouvre une cinquantaine d'espèces différentes dont Flaveria bidentis et Trixis antimenorrhoea).
 Elle a été décrite en 1786 par le botaniste Jean-Baptiste Lamarck, dans l'Encyclopédie Méthodique (sect. Botanique, vol. 2, no 317).
-Le genre Dorstenia a été nommé en honneur du botaniste allemand Theodor Dorsten (1492 - 1552), tandis que l'épithète spécifique brasiliensis fait bien entendu référence au Brésil[3].
+Le genre Dorstenia a été nommé en honneur du botaniste allemand Theodor Dorsten (1492 - 1552), tandis que l'épithète spécifique brasiliensis fait bien entendu référence au Brésil.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée géophyte.
 			Dorstenia brasiliensis en culture
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire du nord-est et du centre de l'Amérique du Sud (du sud du Brésil, du Paraguay, et du nord-est de l'Argentine au Venezuela)[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire du nord-est et du centre de l'Amérique du Sud (du sud du Brésil, du Paraguay, et du nord-est de l'Argentine au Venezuela).
 Son aire de répartition recouvre les écorégions de l'Amazonie, du Plateau des Guyanes, de la Forêt Atlantique, et du Cerrado, ainsi que la côte nord-est de Trinidad-et-Tobago.
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise ses feuilles, sa tige, son écorce, son tubercule et ses racines en infusion (à raison de 1 à 2 g par tasse d'eau bouillante), entre autres comme emménagogue, contre les fièvres intermittentes, ou comme tonique, stimulant et diurétique[réf. nécessaire].
 Elle serait aussi tonicardiaque et améliorerait la circulation sanguine[réf. nécessaire].
